--- a/app/data/inputs/2021-01-29 План по варкам.xlsx
+++ b/app/data/inputs/2021-01-29 План по варкам.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Levkina\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mi\Desktop\master\code\git\2020.10-umalat\umalat\app\data\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A2BEE3-2C76-4976-8DA2-ACA4E2E4E4C7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6470" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6468" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="файл остатки" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
   <definedNames>
     <definedName name="Water_SKU">'Вода SKU'!$A$1:$A$100</definedName>
   </definedNames>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
@@ -2112,7 +2113,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
@@ -2277,7 +2278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2337,31 +2338,39 @@
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEBF1DE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF000000"/>
@@ -2825,19 +2834,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK283"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1025" width="9.08984375" style="22" customWidth="1"/>
+    <col min="1" max="1025" width="9.109375" style="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:130" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:130" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3229,7 +3238,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:130" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:130" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>129</v>
       </c>
@@ -3297,7 +3306,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="1:130" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:130" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>149</v>
       </c>
@@ -3668,7 +3677,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:130" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:130" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>160</v>
       </c>
@@ -4033,7 +4042,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="1:130" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:130" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>179</v>
       </c>
@@ -4410,7 +4419,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:130" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:130" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>302</v>
       </c>
@@ -4784,7 +4793,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="7" spans="1:130" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:130" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>420</v>
       </c>
@@ -5149,7 +5158,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="8" spans="1:130" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:130" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>422</v>
       </c>
@@ -5175,7 +5184,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="9" spans="1:130" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:130" x14ac:dyDescent="0.3">
       <c r="A9" s="13">
         <v>44193</v>
       </c>
@@ -5219,7 +5228,7 @@
         <v>44193</v>
       </c>
     </row>
-    <row r="10" spans="1:130" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:130" x14ac:dyDescent="0.3">
       <c r="A10" s="13">
         <v>44194</v>
       </c>
@@ -5257,7 +5266,7 @@
         <v>44194</v>
       </c>
     </row>
-    <row r="11" spans="1:130" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:130" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
         <v>44195</v>
       </c>
@@ -5286,7 +5295,7 @@
         <v>44195</v>
       </c>
     </row>
-    <row r="12" spans="1:130" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:130" x14ac:dyDescent="0.3">
       <c r="A12" s="13">
         <v>44196</v>
       </c>
@@ -5336,7 +5345,7 @@
         <v>44196</v>
       </c>
     </row>
-    <row r="13" spans="1:130" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:130" x14ac:dyDescent="0.3">
       <c r="A13" s="13">
         <v>44197</v>
       </c>
@@ -5347,7 +5356,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="14" spans="1:130" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:130" x14ac:dyDescent="0.3">
       <c r="A14" s="13">
         <v>44198</v>
       </c>
@@ -5430,7 +5439,7 @@
         <v>44198</v>
       </c>
     </row>
-    <row r="15" spans="1:130" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:130" x14ac:dyDescent="0.3">
       <c r="A15" s="13">
         <v>44199</v>
       </c>
@@ -5507,7 +5516,7 @@
         <v>44199</v>
       </c>
     </row>
-    <row r="16" spans="1:130" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:130" x14ac:dyDescent="0.3">
       <c r="A16" s="13">
         <v>44200</v>
       </c>
@@ -5545,7 +5554,7 @@
         <v>44200</v>
       </c>
     </row>
-    <row r="17" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A17" s="13">
         <v>44201</v>
       </c>
@@ -5688,7 +5697,7 @@
         <v>44201</v>
       </c>
     </row>
-    <row r="18" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A18" s="13">
         <v>44202</v>
       </c>
@@ -5795,7 +5804,7 @@
         <v>44202</v>
       </c>
     </row>
-    <row r="19" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A19" s="13">
         <v>44203</v>
       </c>
@@ -5830,7 +5839,7 @@
         <v>44203</v>
       </c>
     </row>
-    <row r="20" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A20" s="13">
         <v>44204</v>
       </c>
@@ -5982,7 +5991,7 @@
         <v>44204</v>
       </c>
     </row>
-    <row r="21" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A21" s="13">
         <v>44205</v>
       </c>
@@ -6155,7 +6164,7 @@
         <v>44205</v>
       </c>
     </row>
-    <row r="22" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A22" s="13">
         <v>44206</v>
       </c>
@@ -6193,7 +6202,7 @@
         <v>44206</v>
       </c>
     </row>
-    <row r="23" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A23" s="13">
         <v>44207</v>
       </c>
@@ -6204,7 +6213,7 @@
         <v>44207</v>
       </c>
     </row>
-    <row r="24" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A24" s="13">
         <v>44208</v>
       </c>
@@ -6368,7 +6377,7 @@
         <v>44208</v>
       </c>
     </row>
-    <row r="25" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A25" s="13">
         <v>44209</v>
       </c>
@@ -6475,7 +6484,7 @@
         <v>44209</v>
       </c>
     </row>
-    <row r="26" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A26" s="13">
         <v>44210</v>
       </c>
@@ -6519,7 +6528,7 @@
         <v>44210</v>
       </c>
     </row>
-    <row r="27" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A27" s="13">
         <v>44211</v>
       </c>
@@ -6653,7 +6662,7 @@
         <v>44211</v>
       </c>
     </row>
-    <row r="28" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A28" s="13">
         <v>44212</v>
       </c>
@@ -6811,7 +6820,7 @@
         <v>44212</v>
       </c>
     </row>
-    <row r="29" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A29" s="13">
         <v>44213</v>
       </c>
@@ -6888,7 +6897,7 @@
         <v>44213</v>
       </c>
     </row>
-    <row r="30" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A30" s="13">
         <v>44214</v>
       </c>
@@ -6917,7 +6926,7 @@
         <v>44214</v>
       </c>
     </row>
-    <row r="31" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A31" s="13">
         <v>44215</v>
       </c>
@@ -7096,7 +7105,7 @@
         <v>44215</v>
       </c>
     </row>
-    <row r="32" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A32" s="13">
         <v>44216</v>
       </c>
@@ -7194,7 +7203,7 @@
         <v>44216</v>
       </c>
     </row>
-    <row r="33" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A33" s="13">
         <v>44217</v>
       </c>
@@ -7250,7 +7259,7 @@
         <v>44217</v>
       </c>
     </row>
-    <row r="34" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A34" s="13">
         <v>44218</v>
       </c>
@@ -7324,7 +7333,7 @@
         <v>44218</v>
       </c>
     </row>
-    <row r="35" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A35" s="13">
         <v>44219</v>
       </c>
@@ -7530,7 +7539,7 @@
         <v>44219</v>
       </c>
     </row>
-    <row r="36" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A36" s="13">
         <v>44220</v>
       </c>
@@ -7640,7 +7649,7 @@
         <v>44220</v>
       </c>
     </row>
-    <row r="37" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A37" s="13">
         <v>44221</v>
       </c>
@@ -7672,7 +7681,7 @@
         <v>44221</v>
       </c>
     </row>
-    <row r="38" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A38" s="13">
         <v>44222</v>
       </c>
@@ -7815,7 +7824,7 @@
         <v>44222</v>
       </c>
     </row>
-    <row r="39" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A39" s="13">
         <v>44223</v>
       </c>
@@ -7952,7 +7961,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="40" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A40" s="13">
         <v>44224</v>
       </c>
@@ -7987,7 +7996,7 @@
         <v>44224</v>
       </c>
     </row>
-    <row r="41" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A41" s="13">
         <v>44225</v>
       </c>
@@ -7998,7 +8007,7 @@
         <v>44225</v>
       </c>
     </row>
-    <row r="42" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A42" s="13">
         <v>44226</v>
       </c>
@@ -8009,7 +8018,7 @@
         <v>44226</v>
       </c>
     </row>
-    <row r="43" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A43" s="13">
         <v>44227</v>
       </c>
@@ -8020,7 +8029,7 @@
         <v>44227</v>
       </c>
     </row>
-    <row r="44" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A44" s="13">
         <v>44228</v>
       </c>
@@ -8031,7 +8040,7 @@
         <v>44228</v>
       </c>
     </row>
-    <row r="45" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A45" s="13">
         <v>44229</v>
       </c>
@@ -8042,7 +8051,7 @@
         <v>44229</v>
       </c>
     </row>
-    <row r="46" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A46" s="13">
         <v>44230</v>
       </c>
@@ -8053,7 +8062,7 @@
         <v>44230</v>
       </c>
     </row>
-    <row r="47" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A47" s="13">
         <v>44231</v>
       </c>
@@ -8064,7 +8073,7 @@
         <v>44231</v>
       </c>
     </row>
-    <row r="48" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A48" s="13">
         <v>44232</v>
       </c>
@@ -8075,7 +8084,7 @@
         <v>44232</v>
       </c>
     </row>
-    <row r="49" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A49" s="13">
         <v>44233</v>
       </c>
@@ -8086,7 +8095,7 @@
         <v>44233</v>
       </c>
     </row>
-    <row r="50" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A50" s="13">
         <v>44234</v>
       </c>
@@ -8097,7 +8106,7 @@
         <v>44234</v>
       </c>
     </row>
-    <row r="51" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A51" s="13">
         <v>44235</v>
       </c>
@@ -8108,7 +8117,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="52" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A52" s="13">
         <v>44236</v>
       </c>
@@ -8119,7 +8128,7 @@
         <v>44236</v>
       </c>
     </row>
-    <row r="53" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A53" s="13">
         <v>44237</v>
       </c>
@@ -8130,7 +8139,7 @@
         <v>44237</v>
       </c>
     </row>
-    <row r="54" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A54" s="13">
         <v>44238</v>
       </c>
@@ -8141,7 +8150,7 @@
         <v>44238</v>
       </c>
     </row>
-    <row r="55" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A55" s="13">
         <v>44239</v>
       </c>
@@ -8152,7 +8161,7 @@
         <v>44239</v>
       </c>
     </row>
-    <row r="56" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A56" s="13">
         <v>44240</v>
       </c>
@@ -8163,7 +8172,7 @@
         <v>44240</v>
       </c>
     </row>
-    <row r="57" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A57" s="13">
         <v>44241</v>
       </c>
@@ -8174,7 +8183,7 @@
         <v>44241</v>
       </c>
     </row>
-    <row r="58" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A58" s="13">
         <v>44242</v>
       </c>
@@ -8185,7 +8194,7 @@
         <v>44242</v>
       </c>
     </row>
-    <row r="59" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A59" s="13">
         <v>44243</v>
       </c>
@@ -8196,7 +8205,7 @@
         <v>44243</v>
       </c>
     </row>
-    <row r="60" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A60" s="13">
         <v>44244</v>
       </c>
@@ -8207,7 +8216,7 @@
         <v>44244</v>
       </c>
     </row>
-    <row r="61" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A61" s="13">
         <v>44245</v>
       </c>
@@ -8218,7 +8227,7 @@
         <v>44245</v>
       </c>
     </row>
-    <row r="62" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A62" s="13">
         <v>44246</v>
       </c>
@@ -8229,7 +8238,7 @@
         <v>44246</v>
       </c>
     </row>
-    <row r="63" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A63" s="13">
         <v>44247</v>
       </c>
@@ -8240,7 +8249,7 @@
         <v>44247</v>
       </c>
     </row>
-    <row r="64" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A64" s="13">
         <v>44248</v>
       </c>
@@ -8251,7 +8260,7 @@
         <v>44248</v>
       </c>
     </row>
-    <row r="65" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A65" s="13">
         <v>44249</v>
       </c>
@@ -8262,7 +8271,7 @@
         <v>44249</v>
       </c>
     </row>
-    <row r="66" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A66" s="13">
         <v>44250</v>
       </c>
@@ -8273,7 +8282,7 @@
         <v>44250</v>
       </c>
     </row>
-    <row r="67" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A67" s="13">
         <v>44251</v>
       </c>
@@ -8284,7 +8293,7 @@
         <v>44251</v>
       </c>
     </row>
-    <row r="68" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A68" s="13">
         <v>44252</v>
       </c>
@@ -8295,7 +8304,7 @@
         <v>44252</v>
       </c>
     </row>
-    <row r="69" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A69" s="13">
         <v>44253</v>
       </c>
@@ -8306,7 +8315,7 @@
         <v>44253</v>
       </c>
     </row>
-    <row r="70" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A70" s="13">
         <v>44254</v>
       </c>
@@ -8317,7 +8326,7 @@
         <v>44254</v>
       </c>
     </row>
-    <row r="71" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A71" s="13">
         <v>44255</v>
       </c>
@@ -8328,7 +8337,7 @@
         <v>44255</v>
       </c>
     </row>
-    <row r="72" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A72" s="13">
         <v>44256</v>
       </c>
@@ -8339,7 +8348,7 @@
         <v>44256</v>
       </c>
     </row>
-    <row r="73" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A73" s="13">
         <v>44257</v>
       </c>
@@ -8350,7 +8359,7 @@
         <v>44257</v>
       </c>
     </row>
-    <row r="74" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A74" s="13">
         <v>44258</v>
       </c>
@@ -8361,7 +8370,7 @@
         <v>44258</v>
       </c>
     </row>
-    <row r="75" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A75" s="13">
         <v>44259</v>
       </c>
@@ -8372,7 +8381,7 @@
         <v>44259</v>
       </c>
     </row>
-    <row r="76" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A76" s="13">
         <v>44260</v>
       </c>
@@ -8383,7 +8392,7 @@
         <v>44260</v>
       </c>
     </row>
-    <row r="77" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A77" s="13">
         <v>44261</v>
       </c>
@@ -8394,7 +8403,7 @@
         <v>44261</v>
       </c>
     </row>
-    <row r="78" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A78" s="13">
         <v>44262</v>
       </c>
@@ -8405,7 +8414,7 @@
         <v>44262</v>
       </c>
     </row>
-    <row r="79" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A79" s="13">
         <v>44263</v>
       </c>
@@ -8416,10 +8425,10 @@
         <v>44263</v>
       </c>
     </row>
-    <row r="80" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A80" s="12"/>
     </row>
-    <row r="81" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A81" s="12" t="s">
         <v>427</v>
       </c>
@@ -8790,7 +8799,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="82" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A82" s="12" t="s">
         <v>428</v>
       </c>
@@ -9176,7 +9185,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="83" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A83" s="12" t="s">
         <v>429</v>
       </c>
@@ -9196,19 +9205,19 @@
         <v>429</v>
       </c>
     </row>
-    <row r="84" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A84" s="12"/>
       <c r="DW84">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A85" s="12"/>
       <c r="DW85">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A86" s="12" t="s">
         <v>430</v>
       </c>
@@ -9219,7 +9228,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="87" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A87" s="12" t="s">
         <v>431</v>
       </c>
@@ -9239,10 +9248,10 @@
         <v>431</v>
       </c>
     </row>
-    <row r="88" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A88" s="12"/>
     </row>
-    <row r="89" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A89" s="12" t="s">
         <v>432</v>
       </c>
@@ -9616,7 +9625,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="90" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A90" s="12" t="s">
         <v>428</v>
       </c>
@@ -9627,7 +9636,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="91" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A91" s="12" t="s">
         <v>429</v>
       </c>
@@ -9638,19 +9647,19 @@
         <v>434</v>
       </c>
     </row>
-    <row r="92" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A92" s="12"/>
       <c r="DW92">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A93" s="12"/>
       <c r="DW93">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A94" s="12" t="s">
         <v>430</v>
       </c>
@@ -9661,7 +9670,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="95" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A95" s="12" t="s">
         <v>431</v>
       </c>
@@ -9672,10 +9681,10 @@
         <v>436</v>
       </c>
     </row>
-    <row r="96" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A96" s="12"/>
     </row>
-    <row r="97" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A97" s="12" t="s">
         <v>437</v>
       </c>
@@ -10049,7 +10058,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="98" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A98" s="12" t="s">
         <v>428</v>
       </c>
@@ -10060,7 +10069,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="99" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A99" s="12" t="s">
         <v>429</v>
       </c>
@@ -10071,7 +10080,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="100" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A100" s="12">
         <v>0</v>
       </c>
@@ -10082,7 +10091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A101" s="12">
         <v>0</v>
       </c>
@@ -10093,7 +10102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A102" s="12" t="s">
         <v>430</v>
       </c>
@@ -10101,7 +10110,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="103" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A103" s="12" t="s">
         <v>431</v>
       </c>
@@ -10112,10 +10121,10 @@
         <v>436</v>
       </c>
     </row>
-    <row r="104" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A104" s="12"/>
     </row>
-    <row r="105" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A105" s="12" t="s">
         <v>438</v>
       </c>
@@ -10489,7 +10498,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="106" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A106" s="12" t="s">
         <v>428</v>
       </c>
@@ -10863,7 +10872,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="107" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A107" s="12" t="s">
         <v>429</v>
       </c>
@@ -11237,7 +11246,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="108" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A108" s="12">
         <v>0</v>
       </c>
@@ -11611,7 +11620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A109" s="12">
         <v>0</v>
       </c>
@@ -11985,7 +11994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A110" s="12" t="s">
         <v>430</v>
       </c>
@@ -12359,7 +12368,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="111" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A111" s="12" t="s">
         <v>431</v>
       </c>
@@ -12733,10 +12742,10 @@
         <v>436</v>
       </c>
     </row>
-    <row r="112" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A112" s="12"/>
     </row>
-    <row r="113" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A113" s="12" t="s">
         <v>439</v>
       </c>
@@ -13113,10 +13122,10 @@
         <v>439</v>
       </c>
     </row>
-    <row r="114" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A114" s="12"/>
     </row>
-    <row r="115" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A115" s="12" t="s">
         <v>440</v>
       </c>
@@ -13502,10 +13511,10 @@
         <v>440</v>
       </c>
     </row>
-    <row r="116" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A116" s="12"/>
     </row>
-    <row r="117" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A117" s="12" t="s">
         <v>441</v>
       </c>
@@ -13516,7 +13525,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="118" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A118" s="12" t="s">
         <v>424</v>
       </c>
@@ -13884,7 +13893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A119" s="12"/>
       <c r="DV119" t="s">
         <v>424</v>
@@ -13893,7 +13902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A120" s="12" t="s">
         <v>443</v>
       </c>
@@ -14261,7 +14270,7 @@
         <v>26459.69</v>
       </c>
     </row>
-    <row r="121" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A121" s="12" t="s">
         <v>444</v>
       </c>
@@ -14632,7 +14641,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="122" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A122" s="12" t="s">
         <v>424</v>
       </c>
@@ -15000,7 +15009,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="123" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A123" s="12" t="s">
         <v>424</v>
       </c>
@@ -15374,7 +15383,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="124" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A124" s="12"/>
       <c r="DW124">
         <v>0</v>
@@ -15383,7 +15392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A125" s="12" t="s">
         <v>445</v>
       </c>
@@ -15760,7 +15769,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="126" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A126" s="12" t="s">
         <v>446</v>
       </c>
@@ -16137,13 +16146,13 @@
         <v>446</v>
       </c>
     </row>
-    <row r="127" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A127" s="12"/>
       <c r="DW127">
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A128" s="12" t="s">
         <v>447</v>
       </c>
@@ -16526,10 +16535,10 @@
         <v>447</v>
       </c>
     </row>
-    <row r="129" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A129" s="12"/>
     </row>
-    <row r="130" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A130" s="12" t="s">
         <v>448</v>
       </c>
@@ -16558,7 +16567,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="131" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A131" s="12" t="s">
         <v>455</v>
       </c>
@@ -16596,7 +16605,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="132" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A132" s="12" t="s">
         <v>456</v>
       </c>
@@ -16634,7 +16643,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="133" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A133" s="12" t="s">
         <v>424</v>
       </c>
@@ -16642,7 +16651,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="134" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A134" s="12" t="s">
         <v>457</v>
       </c>
@@ -16668,10 +16677,10 @@
         <v>457</v>
       </c>
     </row>
-    <row r="135" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A135" s="12"/>
     </row>
-    <row r="136" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A136" s="12" t="s">
         <v>458</v>
       </c>
@@ -16697,10 +16706,10 @@
         <v>458</v>
       </c>
     </row>
-    <row r="137" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A137" s="12"/>
     </row>
-    <row r="138" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A138" s="12" t="s">
         <v>459</v>
       </c>
@@ -16723,10 +16732,10 @@
         <v>459</v>
       </c>
     </row>
-    <row r="139" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A139" s="12"/>
     </row>
-    <row r="140" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A140" s="12"/>
       <c r="I140">
         <v>402</v>
@@ -16777,7 +16786,7 @@
         <v>14870.36</v>
       </c>
     </row>
-    <row r="141" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A141" s="12" t="s">
         <v>460</v>
       </c>
@@ -17160,7 +17169,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="142" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A142" s="12" t="s">
         <v>461</v>
       </c>
@@ -17171,7 +17180,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="143" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A143" s="12" t="s">
         <v>462</v>
       </c>
@@ -17446,7 +17455,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="144" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A144" s="12" t="s">
         <v>463</v>
       </c>
@@ -17721,19 +17730,19 @@
         <v>463</v>
       </c>
     </row>
-    <row r="145" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A145" s="12"/>
       <c r="DW145">
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A146" s="12"/>
       <c r="DW146">
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A147" s="12" t="s">
         <v>464</v>
       </c>
@@ -18101,7 +18110,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="148" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A148" s="12" t="s">
         <v>465</v>
       </c>
@@ -18469,7 +18478,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="149" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A149" s="12" t="s">
         <v>466</v>
       </c>
@@ -18837,7 +18846,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="150" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A150" s="12" t="s">
         <v>467</v>
       </c>
@@ -19205,7 +19214,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="151" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A151" s="12" t="s">
         <v>468</v>
       </c>
@@ -19573,7 +19582,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="152" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A152" s="12" t="s">
         <v>469</v>
       </c>
@@ -19941,7 +19950,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="153" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A153" s="12" t="s">
         <v>470</v>
       </c>
@@ -20309,7 +20318,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="154" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A154" s="12" t="s">
         <v>471</v>
       </c>
@@ -20677,10 +20686,10 @@
         <v>471</v>
       </c>
     </row>
-    <row r="155" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A155" s="12"/>
     </row>
-    <row r="156" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A156" s="12" t="s">
         <v>472</v>
       </c>
@@ -21063,7 +21072,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="157" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A157" s="12" t="s">
         <v>461</v>
       </c>
@@ -21431,7 +21440,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="158" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A158" s="12" t="s">
         <v>462</v>
       </c>
@@ -21799,7 +21808,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="159" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A159" s="12" t="s">
         <v>463</v>
       </c>
@@ -22167,7 +22176,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="160" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A160" s="12"/>
       <c r="B160">
         <v>0</v>
@@ -22521,7 +22530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A161" s="12"/>
       <c r="B161">
         <v>0</v>
@@ -22875,7 +22884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A162" s="12" t="s">
         <v>473</v>
       </c>
@@ -23243,7 +23252,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="163" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A163" s="12" t="s">
         <v>474</v>
       </c>
@@ -23611,7 +23620,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="164" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A164" s="12" t="s">
         <v>475</v>
       </c>
@@ -23979,7 +23988,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="165" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A165" s="12" t="s">
         <v>476</v>
       </c>
@@ -24347,7 +24356,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="166" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A166" s="12" t="s">
         <v>477</v>
       </c>
@@ -24715,7 +24724,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="167" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A167" s="12" t="s">
         <v>478</v>
       </c>
@@ -25083,7 +25092,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="168" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A168" s="12" t="s">
         <v>479</v>
       </c>
@@ -25451,7 +25460,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="169" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A169" s="12" t="s">
         <v>480</v>
       </c>
@@ -25819,10 +25828,10 @@
         <v>480</v>
       </c>
     </row>
-    <row r="170" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A170" s="12"/>
     </row>
-    <row r="171" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A171" s="12" t="s">
         <v>481</v>
       </c>
@@ -26208,7 +26217,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="172" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A172" s="13">
         <v>43938</v>
       </c>
@@ -26219,7 +26228,7 @@
         <v>43938</v>
       </c>
     </row>
-    <row r="173" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A173" s="13">
         <v>43939</v>
       </c>
@@ -26230,7 +26239,7 @@
         <v>43939</v>
       </c>
     </row>
-    <row r="174" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A174" s="13">
         <v>43940</v>
       </c>
@@ -26241,7 +26250,7 @@
         <v>43940</v>
       </c>
     </row>
-    <row r="175" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A175" s="12"/>
       <c r="DW175">
         <v>0</v>
@@ -26250,7 +26259,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="176" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A176" s="12"/>
       <c r="DW176">
         <v>0</v>
@@ -26259,7 +26268,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="177" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A177" s="12" t="s">
         <v>473</v>
       </c>
@@ -26270,7 +26279,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="178" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A178" s="12" t="s">
         <v>474</v>
       </c>
@@ -26281,7 +26290,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="179" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A179" s="12" t="s">
         <v>475</v>
       </c>
@@ -26292,7 +26301,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="180" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A180" s="12" t="s">
         <v>476</v>
       </c>
@@ -26303,7 +26312,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="181" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A181" s="12" t="s">
         <v>477</v>
       </c>
@@ -26314,7 +26323,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="182" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A182" s="12" t="s">
         <v>478</v>
       </c>
@@ -26325,7 +26334,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="183" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A183" s="12" t="s">
         <v>479</v>
       </c>
@@ -26336,7 +26345,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="184" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A184" s="12" t="s">
         <v>480</v>
       </c>
@@ -26347,10 +26356,10 @@
         <v>480</v>
       </c>
     </row>
-    <row r="185" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A185" s="12"/>
     </row>
-    <row r="186" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A186" s="12" t="s">
         <v>483</v>
       </c>
@@ -26736,7 +26745,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="187" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A187" s="12" t="s">
         <v>461</v>
       </c>
@@ -27110,7 +27119,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="188" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A188" s="12" t="s">
         <v>462</v>
       </c>
@@ -27484,7 +27493,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="189" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A189" s="12" t="s">
         <v>463</v>
       </c>
@@ -27858,7 +27867,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="190" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A190" s="12"/>
       <c r="B190">
         <v>0</v>
@@ -28227,7 +28236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A191" s="12"/>
       <c r="B191">
         <v>0</v>
@@ -28596,7 +28605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A192" s="12" t="s">
         <v>484</v>
       </c>
@@ -28970,7 +28979,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="193" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A193" s="12" t="s">
         <v>485</v>
       </c>
@@ -29344,7 +29353,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="194" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A194" s="12" t="s">
         <v>486</v>
       </c>
@@ -29718,7 +29727,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="195" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A195" s="12" t="s">
         <v>487</v>
       </c>
@@ -30092,7 +30101,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="196" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A196" s="12" t="s">
         <v>488</v>
       </c>
@@ -30466,7 +30475,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="197" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A197" s="12" t="s">
         <v>489</v>
       </c>
@@ -30840,7 +30849,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="198" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A198" s="12" t="s">
         <v>490</v>
       </c>
@@ -31214,7 +31223,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="199" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A199" s="12" t="s">
         <v>491</v>
       </c>
@@ -31588,10 +31597,10 @@
         <v>491</v>
       </c>
     </row>
-    <row r="200" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A200" s="12"/>
     </row>
-    <row r="201" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A201" s="12" t="s">
         <v>492</v>
       </c>
@@ -31917,7 +31926,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="202" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A202" s="12" t="s">
         <v>493</v>
       </c>
@@ -31928,7 +31937,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="203" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A203" s="12" t="s">
         <v>494</v>
       </c>
@@ -32311,7 +32320,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="204" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A204" s="12" t="s">
         <v>495</v>
       </c>
@@ -32694,7 +32703,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="205" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A205" s="12" t="s">
         <v>496</v>
       </c>
@@ -33077,7 +33086,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="206" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A206" s="12" t="s">
         <v>497</v>
       </c>
@@ -33460,7 +33469,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="207" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A207" s="12" t="s">
         <v>498</v>
       </c>
@@ -33468,7 +33477,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="208" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A208" s="12" t="s">
         <v>499</v>
       </c>
@@ -33833,7 +33842,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="209" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A209" s="12" t="s">
         <v>500</v>
       </c>
@@ -34213,7 +34222,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="210" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A210" s="12" t="s">
         <v>501</v>
       </c>
@@ -34593,7 +34602,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="211" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A211" s="12" t="s">
         <v>502</v>
       </c>
@@ -34601,7 +34610,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="212" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A212" s="12" t="s">
         <v>503</v>
       </c>
@@ -34981,7 +34990,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="213" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A213" s="12" t="s">
         <v>504</v>
       </c>
@@ -35361,10 +35370,10 @@
         <v>504</v>
       </c>
     </row>
-    <row r="214" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A214" s="12"/>
     </row>
-    <row r="215" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A215" s="12" t="s">
         <v>508</v>
       </c>
@@ -35747,7 +35756,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="216" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A216" s="12" t="s">
         <v>428</v>
       </c>
@@ -36088,7 +36097,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="217" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A217" s="12" t="s">
         <v>429</v>
       </c>
@@ -36366,7 +36375,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="218" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A218" s="12">
         <v>0</v>
       </c>
@@ -36380,7 +36389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A219" s="12">
         <v>0</v>
       </c>
@@ -36394,7 +36403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A220" s="12" t="s">
         <v>430</v>
       </c>
@@ -36411,7 +36420,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="221" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A221" s="12" t="s">
         <v>431</v>
       </c>
@@ -36422,10 +36431,10 @@
         <v>436</v>
       </c>
     </row>
-    <row r="222" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A222" s="12"/>
     </row>
-    <row r="223" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A223" s="12" t="s">
         <v>509</v>
       </c>
@@ -36799,7 +36808,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="224" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A224" s="12" t="s">
         <v>510</v>
       </c>
@@ -37182,7 +37191,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="225" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A225" s="12" t="s">
         <v>511</v>
       </c>
@@ -37565,7 +37574,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="226" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A226" s="12" t="s">
         <v>512</v>
       </c>
@@ -37939,7 +37948,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="227" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A227" s="12" t="s">
         <v>513</v>
       </c>
@@ -38313,7 +38322,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="228" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A228" s="12" t="s">
         <v>514</v>
       </c>
@@ -38687,7 +38696,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="229" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A229" s="12" t="s">
         <v>515</v>
       </c>
@@ -39061,15 +39070,15 @@
         <v>515</v>
       </c>
     </row>
-    <row r="230" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A230" s="12"/>
     </row>
-    <row r="231" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A231" s="12" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="232" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A232" s="12" t="s">
         <v>517</v>
       </c>
@@ -39437,7 +39446,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="233" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A233" s="12" t="s">
         <v>518</v>
       </c>
@@ -39805,7 +39814,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="234" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A234" s="12" t="s">
         <v>520</v>
       </c>
@@ -40173,7 +40182,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="235" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A235" s="12" t="s">
         <v>522</v>
       </c>
@@ -40541,7 +40550,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="236" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A236" s="12" t="s">
         <v>524</v>
       </c>
@@ -40909,7 +40918,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="237" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A237" s="12" t="s">
         <v>525</v>
       </c>
@@ -41277,16 +41286,16 @@
         <v>523</v>
       </c>
     </row>
-    <row r="238" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A238" s="12"/>
     </row>
-    <row r="239" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A239" s="12"/>
     </row>
-    <row r="240" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A240" s="12"/>
     </row>
-    <row r="241" spans="1:130" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:130" x14ac:dyDescent="0.3">
       <c r="A241" s="12" t="s">
         <v>526</v>
       </c>
@@ -41525,12 +41534,12 @@
         <v>526</v>
       </c>
     </row>
-    <row r="242" spans="1:130" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:130" x14ac:dyDescent="0.3">
       <c r="A242" s="12" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="243" spans="1:130" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:130" x14ac:dyDescent="0.3">
       <c r="A243" s="12"/>
       <c r="B243" t="s">
         <v>148</v>
@@ -41788,7 +41797,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="244" spans="1:130" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:130" x14ac:dyDescent="0.3">
       <c r="A244" s="12"/>
       <c r="E244">
         <v>1594</v>
@@ -42043,7 +42052,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="245" spans="1:130" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:130" x14ac:dyDescent="0.3">
       <c r="A245" s="12" t="s">
         <v>148</v>
       </c>
@@ -42288,10 +42297,10 @@
         <v>814.5</v>
       </c>
     </row>
-    <row r="246" spans="1:130" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:130" x14ac:dyDescent="0.3">
       <c r="A246" s="12"/>
     </row>
-    <row r="247" spans="1:130" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:130" x14ac:dyDescent="0.3">
       <c r="A247" s="12"/>
       <c r="F247" t="s">
         <v>308</v>
@@ -42462,103 +42471,103 @@
         <v>311</v>
       </c>
     </row>
-    <row r="248" spans="1:130" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:130" x14ac:dyDescent="0.3">
       <c r="A248" s="12"/>
     </row>
-    <row r="249" spans="1:130" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:130" x14ac:dyDescent="0.3">
       <c r="A249" s="12"/>
     </row>
-    <row r="250" spans="1:130" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:130" x14ac:dyDescent="0.3">
       <c r="A250" s="12"/>
     </row>
-    <row r="251" spans="1:130" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:130" x14ac:dyDescent="0.3">
       <c r="A251" s="12"/>
     </row>
-    <row r="252" spans="1:130" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:130" x14ac:dyDescent="0.3">
       <c r="A252" s="12"/>
     </row>
-    <row r="253" spans="1:130" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:130" x14ac:dyDescent="0.3">
       <c r="A253" s="12"/>
     </row>
-    <row r="254" spans="1:130" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:130" x14ac:dyDescent="0.3">
       <c r="A254" s="12"/>
     </row>
-    <row r="255" spans="1:130" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:130" x14ac:dyDescent="0.3">
       <c r="A255" s="12"/>
     </row>
-    <row r="256" spans="1:130" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:130" x14ac:dyDescent="0.3">
       <c r="A256" s="12"/>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A257" s="12"/>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A258" s="12"/>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A259" s="12"/>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A260" s="12"/>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A261" s="12"/>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A262" s="12"/>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A263" s="12"/>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A264" s="12"/>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A265" s="12"/>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A266" s="12"/>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A267" s="12"/>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A268" s="12"/>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A269" s="12"/>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A270" s="12"/>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A271" s="12"/>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A272" s="12"/>
     </row>
-    <row r="273" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A273" s="12"/>
     </row>
-    <row r="274" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A274" s="12"/>
     </row>
-    <row r="275" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A275" s="12"/>
     </row>
-    <row r="276" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A276" s="12"/>
     </row>
-    <row r="277" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A277" s="12"/>
     </row>
-    <row r="278" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A278" s="12"/>
     </row>
-    <row r="279" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A279" s="12"/>
     </row>
-    <row r="280" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A280" s="12"/>
       <c r="B280" t="s">
         <v>181</v>
@@ -42705,7 +42714,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="281" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A281" s="12" t="s">
         <v>612</v>
       </c>
@@ -42854,7 +42863,7 @@
         <v>501.15850000000501</v>
       </c>
     </row>
-    <row r="282" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A282" s="12" t="s">
         <v>613</v>
       </c>
@@ -42946,7 +42955,7 @@
         <v>11478.598</v>
       </c>
     </row>
-    <row r="283" spans="1:128" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A283" s="12"/>
       <c r="B283" t="s">
         <v>181</v>
@@ -42999,55 +43008,55 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AMK8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="69.81640625" style="22" customWidth="1"/>
-    <col min="2" max="1025" width="8.54296875" style="22" customWidth="1"/>
+    <col min="1" max="1" width="69.77734375" style="22" customWidth="1"/>
+    <col min="2" max="1025" width="8.5546875" style="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
         <v>679</v>
       </c>
@@ -43059,7 +43068,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMK99"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -43067,18 +43076,18 @@
       <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.08984375" style="22" customWidth="1"/>
-    <col min="2" max="2" width="11.26953125" style="22" customWidth="1"/>
-    <col min="3" max="3" width="9.08984375" style="22" customWidth="1"/>
-    <col min="4" max="4" width="62.1796875" style="22" customWidth="1"/>
-    <col min="5" max="8" width="10.26953125" style="22" customWidth="1"/>
-    <col min="9" max="9" width="18.1796875" style="22" customWidth="1"/>
-    <col min="10" max="1025" width="9.08984375" style="22" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" style="22" customWidth="1"/>
+    <col min="2" max="2" width="11.21875" style="22" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="22" customWidth="1"/>
+    <col min="4" max="4" width="62.21875" style="22" customWidth="1"/>
+    <col min="5" max="8" width="10.21875" style="22" customWidth="1"/>
+    <col min="9" max="9" width="18.21875" style="22" customWidth="1"/>
+    <col min="10" max="1025" width="9.109375" style="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>614</v>
       </c>
@@ -43120,11 +43129,11 @@
         <v>447</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="30" t="s">
+    <row r="2" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="28" t="s">
         <v>625</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="27" t="s">
         <v>626</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -43166,11 +43175,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="30" t="s">
+    <row r="3" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="28" t="s">
         <v>628</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="29" t="s">
         <v>629</v>
       </c>
       <c r="C3" s="17" t="s">
@@ -43212,9 +43221,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
+    <row r="4" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="17" t="s">
         <v>163</v>
       </c>
@@ -43237,9 +43246,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="28"/>
-      <c r="B5" s="29"/>
+    <row r="5" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="30"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="17" t="s">
         <v>166</v>
       </c>
@@ -43262,9 +43271,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="28"/>
-      <c r="B6" s="31" t="s">
+    <row r="6" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="30"/>
+      <c r="B6" s="32" t="s">
         <v>157</v>
       </c>
       <c r="C6" s="18" t="s">
@@ -43289,9 +43298,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
+    <row r="7" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="18" t="s">
         <v>163</v>
       </c>
@@ -43314,13 +43323,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="30" t="s">
+    <row r="8" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="28" t="s">
         <v>631</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="33" t="s">
         <v>632</v>
       </c>
       <c r="C10" s="19" t="s">
@@ -43362,9 +43371,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
+    <row r="11" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
       <c r="C11" s="19" t="s">
         <v>164</v>
       </c>
@@ -43387,9 +43396,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
+    <row r="12" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
       <c r="C12" s="20" t="s">
         <v>172</v>
       </c>
@@ -43412,9 +43421,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="28"/>
-      <c r="B13" s="29"/>
+    <row r="13" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="30"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="20" t="s">
         <v>172</v>
       </c>
@@ -43437,9 +43446,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="28"/>
-      <c r="B14" s="27" t="s">
+    <row r="14" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="30"/>
+      <c r="B14" s="34" t="s">
         <v>634</v>
       </c>
       <c r="C14" s="19" t="s">
@@ -43464,9 +43473,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
+    <row r="15" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
       <c r="C15" s="21" t="s">
         <v>161</v>
       </c>
@@ -43489,9 +43498,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="28"/>
-      <c r="B16" s="28"/>
+    <row r="16" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="30"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="21" t="s">
         <v>163</v>
       </c>
@@ -43514,9 +43523,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="28"/>
-      <c r="B17" s="28"/>
+    <row r="17" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
       <c r="C17" s="21" t="s">
         <v>161</v>
       </c>
@@ -43539,9 +43548,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="28"/>
-      <c r="B18" s="28"/>
+    <row r="18" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
       <c r="C18" s="21" t="s">
         <v>161</v>
       </c>
@@ -43564,9 +43573,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="28"/>
-      <c r="B19" s="28"/>
+    <row r="19" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
       <c r="C19" s="21" t="s">
         <v>166</v>
       </c>
@@ -43589,9 +43598,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="28"/>
-      <c r="B20" s="28"/>
+    <row r="20" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
       <c r="C20" s="21" t="s">
         <v>161</v>
       </c>
@@ -43614,9 +43623,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="28"/>
-      <c r="B21" s="29"/>
+    <row r="21" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="30"/>
+      <c r="B21" s="31"/>
       <c r="C21" s="21" t="s">
         <v>161</v>
       </c>
@@ -43639,9 +43648,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="28"/>
-      <c r="B22" s="33" t="s">
+    <row r="22" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="30"/>
+      <c r="B22" s="27" t="s">
         <v>626</v>
       </c>
       <c r="C22" s="15" t="s">
@@ -43666,9 +43675,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
+    <row r="23" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
       <c r="C23" s="15" t="s">
         <v>168</v>
       </c>
@@ -43691,9 +43700,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="28"/>
-      <c r="B24" s="28"/>
+    <row r="24" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="30"/>
+      <c r="B24" s="30"/>
       <c r="C24" s="15" t="s">
         <v>166</v>
       </c>
@@ -43716,9 +43725,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="28"/>
-      <c r="B25" s="28"/>
+    <row r="25" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="30"/>
+      <c r="B25" s="30"/>
       <c r="C25" s="15" t="s">
         <v>163</v>
       </c>
@@ -43741,9 +43750,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="28"/>
-      <c r="B26" s="28"/>
+    <row r="26" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="30"/>
+      <c r="B26" s="30"/>
       <c r="C26" s="15" t="s">
         <v>164</v>
       </c>
@@ -43766,9 +43775,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29"/>
+    <row r="27" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="31"/>
+      <c r="B27" s="31"/>
       <c r="C27" s="15" t="s">
         <v>164</v>
       </c>
@@ -43791,13 +43800,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="29" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="30" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="30" t="s">
+    <row r="28" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="28" t="s">
         <v>635</v>
       </c>
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="34" t="s">
         <v>634</v>
       </c>
       <c r="C30" s="21" t="s">
@@ -43839,9 +43848,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="28"/>
-      <c r="B31" s="33" t="s">
+    <row r="31" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="30"/>
+      <c r="B31" s="27" t="s">
         <v>626</v>
       </c>
       <c r="C31" s="15" t="s">
@@ -43866,9 +43875,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="28"/>
-      <c r="B32" s="28"/>
+    <row r="32" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="30"/>
+      <c r="B32" s="30"/>
       <c r="C32" s="15" t="s">
         <v>165</v>
       </c>
@@ -43891,9 +43900,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="28"/>
-      <c r="B33" s="28"/>
+    <row r="33" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="30"/>
+      <c r="B33" s="30"/>
       <c r="C33" s="15" t="s">
         <v>170</v>
       </c>
@@ -43916,9 +43925,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="28"/>
-      <c r="B34" s="28"/>
+    <row r="34" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="30"/>
+      <c r="B34" s="30"/>
       <c r="C34" s="15" t="s">
         <v>163</v>
       </c>
@@ -43941,9 +43950,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="28"/>
-      <c r="B35" s="28"/>
+    <row r="35" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="30"/>
+      <c r="B35" s="30"/>
       <c r="C35" s="15" t="s">
         <v>167</v>
       </c>
@@ -43966,9 +43975,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="28"/>
-      <c r="B36" s="28"/>
+    <row r="36" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="30"/>
+      <c r="B36" s="30"/>
       <c r="C36" s="15" t="s">
         <v>165</v>
       </c>
@@ -43991,9 +44000,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="28"/>
-      <c r="B37" s="28"/>
+    <row r="37" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="30"/>
+      <c r="B37" s="30"/>
       <c r="C37" s="15" t="s">
         <v>171</v>
       </c>
@@ -44016,9 +44025,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="28"/>
-      <c r="B38" s="28"/>
+    <row r="38" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="30"/>
+      <c r="B38" s="30"/>
       <c r="C38" s="15" t="s">
         <v>165</v>
       </c>
@@ -44041,9 +44050,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="29"/>
-      <c r="B39" s="29"/>
+    <row r="39" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="31"/>
+      <c r="B39" s="31"/>
       <c r="C39" s="15" t="s">
         <v>164</v>
       </c>
@@ -44066,13 +44075,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="41" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="42" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="30" t="s">
+    <row r="40" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="28" t="s">
         <v>638</v>
       </c>
-      <c r="B42" s="32" t="s">
+      <c r="B42" s="29" t="s">
         <v>629</v>
       </c>
       <c r="C42" s="17" t="s">
@@ -44114,13 +44123,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="44" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="45" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="30" t="s">
+    <row r="43" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="28" t="s">
         <v>640</v>
       </c>
-      <c r="B45" s="32" t="s">
+      <c r="B45" s="29" t="s">
         <v>629</v>
       </c>
       <c r="C45" s="17" t="s">
@@ -44162,9 +44171,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="28"/>
-      <c r="B46" s="28"/>
+    <row r="46" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="30"/>
+      <c r="B46" s="30"/>
       <c r="C46" s="17" t="s">
         <v>173</v>
       </c>
@@ -44187,9 +44196,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="28"/>
-      <c r="B47" s="28"/>
+    <row r="47" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="30"/>
+      <c r="B47" s="30"/>
       <c r="C47" s="17" t="s">
         <v>169</v>
       </c>
@@ -44212,9 +44221,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="28"/>
-      <c r="B48" s="28"/>
+    <row r="48" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="30"/>
+      <c r="B48" s="30"/>
       <c r="C48" s="17" t="s">
         <v>174</v>
       </c>
@@ -44237,9 +44246,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="28"/>
-      <c r="B49" s="28"/>
+    <row r="49" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="30"/>
+      <c r="B49" s="30"/>
       <c r="C49" s="17" t="s">
         <v>175</v>
       </c>
@@ -44262,9 +44271,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="28"/>
-      <c r="B50" s="28"/>
+    <row r="50" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="30"/>
+      <c r="B50" s="30"/>
       <c r="C50" s="17" t="s">
         <v>165</v>
       </c>
@@ -44287,9 +44296,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="28"/>
-      <c r="B51" s="28"/>
+    <row r="51" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="30"/>
+      <c r="B51" s="30"/>
       <c r="C51" s="17" t="s">
         <v>163</v>
       </c>
@@ -44312,9 +44321,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="28"/>
-      <c r="B52" s="29"/>
+    <row r="52" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="30"/>
+      <c r="B52" s="31"/>
       <c r="C52" s="17" t="s">
         <v>167</v>
       </c>
@@ -44337,9 +44346,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="28"/>
-      <c r="B53" s="31" t="s">
+    <row r="53" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="30"/>
+      <c r="B53" s="32" t="s">
         <v>157</v>
       </c>
       <c r="C53" s="18" t="s">
@@ -44364,9 +44373,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="28"/>
-      <c r="B54" s="28"/>
+    <row r="54" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="30"/>
+      <c r="B54" s="30"/>
       <c r="C54" s="18" t="s">
         <v>169</v>
       </c>
@@ -44389,9 +44398,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="28"/>
-      <c r="B55" s="28"/>
+    <row r="55" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="30"/>
+      <c r="B55" s="30"/>
       <c r="C55" s="18" t="s">
         <v>167</v>
       </c>
@@ -44414,9 +44423,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="28"/>
-      <c r="B56" s="28"/>
+    <row r="56" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="30"/>
+      <c r="B56" s="30"/>
       <c r="C56" s="18" t="s">
         <v>175</v>
       </c>
@@ -44439,9 +44448,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="28"/>
-      <c r="B57" s="28"/>
+    <row r="57" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="30"/>
+      <c r="B57" s="30"/>
       <c r="C57" s="18" t="s">
         <v>174</v>
       </c>
@@ -44464,9 +44473,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="28"/>
-      <c r="B58" s="28"/>
+    <row r="58" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="30"/>
+      <c r="B58" s="30"/>
       <c r="C58" s="18" t="s">
         <v>173</v>
       </c>
@@ -44489,9 +44498,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="29"/>
-      <c r="B59" s="29"/>
+    <row r="59" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="31"/>
+      <c r="B59" s="31"/>
       <c r="C59" s="18" t="s">
         <v>163</v>
       </c>
@@ -44514,13 +44523,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="61" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="62" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="30" t="s">
+    <row r="60" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="28" t="s">
         <v>642</v>
       </c>
-      <c r="B62" s="32" t="s">
+      <c r="B62" s="29" t="s">
         <v>629</v>
       </c>
       <c r="C62" s="17" t="s">
@@ -44562,9 +44571,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="28"/>
-      <c r="B63" s="29"/>
+    <row r="63" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="30"/>
+      <c r="B63" s="31"/>
       <c r="C63" s="17" t="s">
         <v>164</v>
       </c>
@@ -44587,9 +44596,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="29"/>
-      <c r="B64" s="31" t="s">
+    <row r="64" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="31"/>
+      <c r="B64" s="32" t="s">
         <v>157</v>
       </c>
       <c r="C64" s="18" t="s">
@@ -44614,13 +44623,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="66" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="67" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="30" t="s">
+    <row r="65" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="28" t="s">
         <v>642</v>
       </c>
-      <c r="B67" s="27" t="s">
+      <c r="B67" s="34" t="s">
         <v>155</v>
       </c>
       <c r="C67" s="21" t="s">
@@ -44661,9 +44670,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="28"/>
-      <c r="B68" s="28"/>
+    <row r="68" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="30"/>
+      <c r="B68" s="30"/>
       <c r="C68" s="21" t="s">
         <v>164</v>
       </c>
@@ -44686,9 +44695,9 @@
         <v>-6.8</v>
       </c>
     </row>
-    <row r="69" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="28"/>
-      <c r="B69" s="28"/>
+    <row r="69" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="30"/>
+      <c r="B69" s="30"/>
       <c r="C69" s="21" t="s">
         <v>645</v>
       </c>
@@ -44711,9 +44720,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="28"/>
-      <c r="B70" s="28"/>
+    <row r="70" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="30"/>
+      <c r="B70" s="30"/>
       <c r="C70" s="21" t="s">
         <v>164</v>
       </c>
@@ -44736,9 +44745,9 @@
         <v>-3.8</v>
       </c>
     </row>
-    <row r="71" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="29"/>
-      <c r="B71" s="29"/>
+    <row r="71" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="31"/>
+      <c r="B71" s="31"/>
       <c r="C71" s="21" t="s">
         <v>645</v>
       </c>
@@ -44761,51 +44770,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="73" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="74" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="75" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="76" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="77" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="78" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="79" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="80" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="81" ht="13.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="82" ht="13.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="83" ht="13.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="84" ht="13.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="85" ht="13.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="86" ht="13.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="87" ht="13.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="88" ht="13.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="89" ht="13.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="90" ht="13.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="91" ht="13.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="92" ht="13.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="93" ht="13.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="94" ht="13.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="95" ht="13.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="96" ht="13.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="97" ht="13.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="98" ht="13.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="99" ht="13.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="72" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B2"/>
-    <mergeCell ref="A2"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B21"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="A10:A27"/>
-    <mergeCell ref="B30"/>
-    <mergeCell ref="B31:B39"/>
-    <mergeCell ref="A30:A39"/>
-    <mergeCell ref="B42"/>
-    <mergeCell ref="A42"/>
-    <mergeCell ref="B45:B52"/>
     <mergeCell ref="B67:B71"/>
     <mergeCell ref="A67:A71"/>
     <mergeCell ref="B53:B59"/>
@@ -44813,6 +44807,21 @@
     <mergeCell ref="B62:B63"/>
     <mergeCell ref="B64"/>
     <mergeCell ref="A62:A64"/>
+    <mergeCell ref="B31:B39"/>
+    <mergeCell ref="A30:A39"/>
+    <mergeCell ref="B42"/>
+    <mergeCell ref="A42"/>
+    <mergeCell ref="B45:B52"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B21"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="A10:A27"/>
+    <mergeCell ref="B30"/>
+    <mergeCell ref="B2"/>
+    <mergeCell ref="A2"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A3:A7"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -44824,7 +44833,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMK115"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -44834,32 +44843,32 @@
       <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.54296875" style="22" customWidth="1"/>
+    <col min="1" max="1" width="8.5546875" style="22" customWidth="1"/>
     <col min="2" max="2" width="15" style="22" customWidth="1"/>
-    <col min="3" max="3" width="10.26953125" style="22" customWidth="1"/>
-    <col min="4" max="5" width="10.36328125" style="22" customWidth="1"/>
-    <col min="6" max="7" width="10.26953125" style="22" customWidth="1"/>
-    <col min="8" max="8" width="43.1796875" style="22" customWidth="1"/>
-    <col min="9" max="9" width="10.26953125" style="22" customWidth="1"/>
-    <col min="10" max="11" width="8.7265625" style="22" customWidth="1"/>
-    <col min="12" max="12" width="8.7265625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="12.36328125" style="4" customWidth="1"/>
-    <col min="14" max="14" width="1.81640625" style="22" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="5.54296875" style="22" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="5.453125" style="22" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" style="22" customWidth="1"/>
+    <col min="4" max="5" width="10.33203125" style="22" customWidth="1"/>
+    <col min="6" max="7" width="10.21875" style="22" customWidth="1"/>
+    <col min="8" max="8" width="43.21875" style="22" customWidth="1"/>
+    <col min="9" max="9" width="10.21875" style="22" customWidth="1"/>
+    <col min="10" max="11" width="8.77734375" style="22" customWidth="1"/>
+    <col min="12" max="12" width="8.77734375" style="3" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" style="4" customWidth="1"/>
+    <col min="14" max="14" width="1.77734375" style="22" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="5.5546875" style="22" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="5.44140625" style="22" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="5" style="22" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="7.54296875" style="22" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="3.1796875" style="22" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="4.54296875" style="22" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="6.7265625" style="22" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="8.81640625" style="22" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="8.54296875" style="22" hidden="1" customWidth="1"/>
-    <col min="24" max="1025" width="8.54296875" style="22" customWidth="1"/>
+    <col min="18" max="18" width="7.5546875" style="22" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="3.21875" style="22" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="4.5546875" style="22" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="6.77734375" style="22" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="8.77734375" style="22" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="8.5546875" style="22" hidden="1" customWidth="1"/>
+    <col min="24" max="1025" width="8.5546875" style="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>646</v>
       </c>
@@ -44927,7 +44936,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J2" s="9" t="str">
         <f t="shared" ref="J2:J3" ca="1" si="0">IF(L2="", IF(N2="","",W2+(INDIRECT("R" &amp; ROW() - 1) - R2)),IF(N2="", "", INDIRECT("R" &amp; ROW() - 1) - R2))</f>
         <v/>
@@ -44973,7 +44982,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J3" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -45019,7 +45028,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J4" s="9" t="str">
         <f t="shared" ref="J4:J35" ca="1" si="10">IF(L4="", IF(N4="","",W4+(INDIRECT("R" &amp; ROW() - 1) - R4)),IF(N4="", "", INDIRECT("R" &amp; ROW() - 1) - R4))</f>
         <v/>
@@ -45065,7 +45074,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J5" s="9" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
@@ -45111,7 +45120,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J6" s="9" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
@@ -45157,7 +45166,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J7" s="9" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
@@ -45203,7 +45212,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J8" s="9" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
@@ -45249,7 +45258,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J9" s="9" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
@@ -45295,7 +45304,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J10" s="9" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
@@ -45341,7 +45350,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J11" s="9" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
@@ -45387,7 +45396,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J12" s="9" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
@@ -45433,7 +45442,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J13" s="9" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
@@ -45479,7 +45488,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J14" s="9" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
@@ -45525,7 +45534,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J15" s="9" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
@@ -45571,7 +45580,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J16" s="9" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
@@ -45617,7 +45626,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J17" s="9" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
@@ -45663,7 +45672,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J18" s="9" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
@@ -45709,7 +45718,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J19" s="9" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
@@ -45755,7 +45764,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J20" s="9" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
@@ -45801,7 +45810,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J21" s="9" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
@@ -45847,7 +45856,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J22" s="9" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
@@ -45893,7 +45902,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J23" s="9" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
@@ -45939,7 +45948,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J24" s="9" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
@@ -45985,7 +45994,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J25" s="9" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
@@ -46031,7 +46040,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J26" s="9" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
@@ -46077,7 +46086,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J27" s="9" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
@@ -46123,7 +46132,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J28" s="9" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
@@ -46169,7 +46178,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J29" s="9" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
@@ -46216,7 +46225,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J30" s="9" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
@@ -46262,7 +46271,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J31" s="9" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
@@ -46308,7 +46317,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J32" s="9" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
@@ -46354,7 +46363,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J33" s="9" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
@@ -46400,7 +46409,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J34" s="9" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
@@ -46446,7 +46455,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J35" s="9" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
@@ -46492,7 +46501,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J36" s="9" t="str">
         <f t="shared" ref="J36:J67" ca="1" si="20">IF(L36="", IF(N36="","",W36+(INDIRECT("R" &amp; ROW() - 1) - R36)),IF(N36="", "", INDIRECT("R" &amp; ROW() - 1) - R36))</f>
         <v/>
@@ -46506,7 +46515,7 @@
         <v>0</v>
       </c>
       <c r="P36">
-        <f t="shared" ref="P36:P67" ca="1" si="23">IF(N36 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(O36)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(O36)))), 0)</f>
+        <f t="shared" ref="P36:P43" ca="1" si="23">IF(N36 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(O36)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(O36)))), 0)</f>
         <v>0</v>
       </c>
       <c r="Q36">
@@ -46538,7 +46547,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J37" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -46584,7 +46593,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J38" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -46630,7 +46639,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J39" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -46676,7 +46685,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J40" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -46722,7 +46731,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J41" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -46768,7 +46777,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J42" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -46814,7 +46823,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J43" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -46860,7 +46869,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J44" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -46906,7 +46915,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J45" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -46952,7 +46961,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J46" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -46998,7 +47007,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J47" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -47044,7 +47053,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J48" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -47090,7 +47099,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J49" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -47136,7 +47145,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J50" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -47182,7 +47191,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J51" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -47228,7 +47237,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J52" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -47274,7 +47283,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J53" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -47320,7 +47329,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J54" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -47366,7 +47375,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J55" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -47412,7 +47421,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J56" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -47458,7 +47467,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J57" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -47504,7 +47513,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J58" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -47550,7 +47559,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J59" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -47596,7 +47605,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J60" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -47642,7 +47651,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J61" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -47688,7 +47697,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J62" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -47734,7 +47743,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J63" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -47780,7 +47789,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J64" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -47826,7 +47835,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J65" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -47872,7 +47881,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J66" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -47918,7 +47927,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J67" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -47964,17 +47973,17 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J68" s="9" t="str">
         <f t="shared" ref="J68:J92" ca="1" si="31">IF(L68="", IF(N68="","",W68+(INDIRECT("R" &amp; ROW() - 1) - R68)),IF(N68="", "", INDIRECT("R" &amp; ROW() - 1) - R68))</f>
         <v/>
       </c>
       <c r="M68" s="10" t="str">
-        <f t="shared" ref="M68:M99" ca="1" si="32">IF(L68="", IF(W68=0, "", W68), IF(U68 = "", "", IF(U68/T68 = 0, "", U68/T68)))</f>
+        <f t="shared" ref="M68:M92" ca="1" si="32">IF(L68="", IF(W68=0, "", W68), IF(U68 = "", "", IF(U68/T68 = 0, "", U68/T68)))</f>
         <v/>
       </c>
       <c r="O68">
-        <f t="shared" ref="O68:O99" si="33">IF(N68 = "-", -V68,I68)</f>
+        <f t="shared" ref="O68:O92" si="33">IF(N68 = "-", -V68,I68)</f>
         <v>0</v>
       </c>
       <c r="P68">
@@ -48002,7 +48011,7 @@
         <v>0</v>
       </c>
       <c r="V68">
-        <f t="shared" ref="V68:V99" si="37">IF(U68 = "", "", U68/T68)</f>
+        <f t="shared" ref="V68:V92" si="37">IF(U68 = "", "", U68/T68)</f>
         <v>0</v>
       </c>
       <c r="W68" t="str">
@@ -48010,7 +48019,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J69" s="9" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -48056,7 +48065,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J70" s="9" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -48102,7 +48111,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J71" s="9" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -48148,7 +48157,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J72" s="9" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -48194,7 +48203,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J73" s="9" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -48240,7 +48249,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J74" s="9" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -48286,7 +48295,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J75" s="9" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -48332,7 +48341,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J76" s="9" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -48378,7 +48387,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J77" s="9" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -48424,7 +48433,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J78" s="9" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -48470,7 +48479,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J79" s="9" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -48516,7 +48525,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J80" s="9" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -48562,7 +48571,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J81" s="9" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -48608,7 +48617,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J82" s="9" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -48654,7 +48663,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J83" s="9" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -48700,7 +48709,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J84" s="9" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -48746,7 +48755,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J85" s="9" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -48792,7 +48801,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J86" s="9" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -48838,7 +48847,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J87" s="9" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -48884,7 +48893,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J88" s="9" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -48930,7 +48939,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J89" s="9" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -48976,7 +48985,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J90" s="9" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -49022,7 +49031,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J91" s="9" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -49068,7 +49077,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J92" s="9" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -49114,30 +49123,30 @@
         <v/>
       </c>
     </row>
-    <row r="109" ht="13.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="114" ht="13.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="115" ht="13.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="109" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="114" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="115" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <conditionalFormatting sqref="B2:B92">
-    <cfRule type="expression" dxfId="8" priority="2">
+    <cfRule type="expression" dxfId="9" priority="2">
       <formula>$B2&lt;&gt;$S2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="3">
+    <cfRule type="expression" dxfId="8" priority="3">
       <formula>$B2&lt;&gt;$S2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="between">
       <formula>1</formula>
       <formula>1000000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="between">
       <formula>-100000</formula>
       <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="expression" dxfId="4" priority="15">
+    <cfRule type="expression" dxfId="5" priority="15">
       <formula>SUMIF(J2:J92,"&gt;0")-SUMIF(J2:J92,"&lt;0") &gt; 1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -49147,40 +49156,40 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AMK120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K29" sqref="K29"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.54296875" style="22" customWidth="1"/>
+    <col min="1" max="1" width="8.5546875" style="22" customWidth="1"/>
     <col min="2" max="2" width="15" style="22" customWidth="1"/>
-    <col min="3" max="3" width="10.26953125" style="22" customWidth="1"/>
-    <col min="4" max="5" width="10.36328125" style="22" customWidth="1"/>
-    <col min="6" max="7" width="10.26953125" style="22" customWidth="1"/>
-    <col min="8" max="8" width="43.1796875" style="22" customWidth="1"/>
-    <col min="9" max="9" width="10.26953125" style="22" customWidth="1"/>
-    <col min="10" max="11" width="8.7265625" style="22" customWidth="1"/>
-    <col min="12" max="12" width="8.7265625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="12.36328125" style="4" customWidth="1"/>
-    <col min="14" max="14" width="1.81640625" style="22" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="5.54296875" style="22" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="5.453125" style="22" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" style="22" customWidth="1"/>
+    <col min="4" max="5" width="10.33203125" style="22" customWidth="1"/>
+    <col min="6" max="7" width="10.21875" style="22" customWidth="1"/>
+    <col min="8" max="8" width="43.21875" style="22" customWidth="1"/>
+    <col min="9" max="9" width="10.21875" style="22" customWidth="1"/>
+    <col min="10" max="11" width="8.77734375" style="22" customWidth="1"/>
+    <col min="12" max="12" width="8.77734375" style="3" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" style="4" customWidth="1"/>
+    <col min="14" max="14" width="1.77734375" style="22" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="5.5546875" style="22" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="5.44140625" style="22" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="5" style="22" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="7.54296875" style="22" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="3.1796875" style="22" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="6.6328125" style="22" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="14.54296875" style="22" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="7.5546875" style="22" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="3.21875" style="22" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="6.6640625" style="22" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5546875" style="22" hidden="1" customWidth="1"/>
     <col min="22" max="22" width="12" style="22" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="8.54296875" style="22" hidden="1" customWidth="1"/>
-    <col min="24" max="1025" width="8.54296875" style="22" customWidth="1"/>
+    <col min="23" max="23" width="8.5546875" style="22" hidden="1" customWidth="1"/>
+    <col min="24" max="1025" width="8.5546875" style="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>646</v>
       </c>
@@ -49248,7 +49257,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="24">
         <f ca="1">IF(N2="-", "-", 1 + MAX(Вода!$A$2:$A$70) + SUM(INDIRECT(ADDRESS(2,COLUMN(Q2)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(Q2)))))</f>
         <v>1</v>
@@ -49326,7 +49335,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24">
         <f ca="1">IF(N3="-", "-", 1 + MAX(Вода!$A$2:$A$70) + SUM(INDIRECT(ADDRESS(2,COLUMN(Q3)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(Q3)))))</f>
         <v>1</v>
@@ -49403,7 +49412,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="24">
         <f ca="1">IF(N4="-", "-", 1 + MAX(Вода!$A$2:$A$70) + SUM(INDIRECT(ADDRESS(2,COLUMN(Q4)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(Q4)))))</f>
         <v>1</v>
@@ -49480,7 +49489,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="str">
         <f ca="1">IF(N5="-", "-", 1 + MAX(Вода!$A$2:$A$70) + SUM(INDIRECT(ADDRESS(2,COLUMN(Q5)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(Q5)))))</f>
         <v>-</v>
@@ -49554,7 +49563,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="24">
         <f ca="1">IF(N6="-", "-", 1 + MAX(Вода!$A$2:$A$70) + SUM(INDIRECT(ADDRESS(2,COLUMN(Q6)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(Q6)))))</f>
         <v>2</v>
@@ -49631,7 +49640,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="24">
         <f ca="1">IF(N7="-", "-", 1 + MAX(Вода!$A$2:$A$70) + SUM(INDIRECT(ADDRESS(2,COLUMN(Q7)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(Q7)))))</f>
         <v>2</v>
@@ -49708,7 +49717,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="25">
         <f ca="1">IF(N8="-", "-", 1 + MAX(Вода!$A$2:$A$70) + SUM(INDIRECT(ADDRESS(2,COLUMN(Q8)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(Q8)))))</f>
         <v>2</v>
@@ -49785,7 +49794,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="str">
         <f ca="1">IF(N9="-", "-", 1 + MAX(Вода!$A$2:$A$70) + SUM(INDIRECT(ADDRESS(2,COLUMN(Q9)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(Q9)))))</f>
         <v>-</v>
@@ -49859,7 +49868,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="25">
         <f ca="1">IF(N10="-", "-", 1 + MAX(Вода!$A$2:$A$70) + SUM(INDIRECT(ADDRESS(2,COLUMN(Q10)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(Q10)))))</f>
         <v>3</v>
@@ -49936,7 +49945,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="25">
         <f ca="1">IF(N11="-", "-", 1 + MAX(Вода!$A$2:$A$70) + SUM(INDIRECT(ADDRESS(2,COLUMN(Q11)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(Q11)))))</f>
         <v>3</v>
@@ -50013,7 +50022,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="23" t="str">
         <f ca="1">IF(N12="-", "-", 1 + MAX(Вода!$A$2:$A$70) + SUM(INDIRECT(ADDRESS(2,COLUMN(Q12)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(Q12)))))</f>
         <v>-</v>
@@ -50087,7 +50096,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="26">
         <f ca="1">IF(N13="-", "-", 1 + MAX(Вода!$A$2:$A$70) + SUM(INDIRECT(ADDRESS(2,COLUMN(Q13)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(Q13)))))</f>
         <v>4</v>
@@ -50164,7 +50173,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="23" t="str">
         <f ca="1">IF(N14="-", "-", 1 + MAX(Вода!$A$2:$A$70) + SUM(INDIRECT(ADDRESS(2,COLUMN(Q14)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(Q14)))))</f>
         <v>-</v>
@@ -50238,7 +50247,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="26">
         <f ca="1">IF(N15="-", "-", 1 + MAX(Вода!$A$2:$A$70) + SUM(INDIRECT(ADDRESS(2,COLUMN(Q15)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(Q15)))))</f>
         <v>5</v>
@@ -50315,7 +50324,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="23" t="str">
         <f ca="1">IF(N16="-", "-", 1 + MAX(Вода!$A$2:$A$70) + SUM(INDIRECT(ADDRESS(2,COLUMN(Q16)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(Q16)))))</f>
         <v>-</v>
@@ -50389,7 +50398,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="26">
         <f ca="1">IF(N17="-", "-", 1 + MAX(Вода!$A$2:$A$70) + SUM(INDIRECT(ADDRESS(2,COLUMN(Q17)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(Q17)))))</f>
         <v>6</v>
@@ -50466,7 +50475,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="24">
         <f ca="1">IF(N18="-", "-", 1 + MAX(Вода!$A$2:$A$70) + SUM(INDIRECT(ADDRESS(2,COLUMN(Q18)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(Q18)))))</f>
         <v>6</v>
@@ -50543,7 +50552,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="23" t="str">
         <f ca="1">IF(N19="-", "-", 1 + MAX(Вода!$A$2:$A$70) + SUM(INDIRECT(ADDRESS(2,COLUMN(Q19)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(Q19)))))</f>
         <v>-</v>
@@ -50617,7 +50626,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="26">
         <f ca="1">IF(N20="-", "-", 1 + MAX(Вода!$A$2:$A$70) + SUM(INDIRECT(ADDRESS(2,COLUMN(Q20)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(Q20)))))</f>
         <v>7</v>
@@ -50694,7 +50703,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="23" t="str">
         <f ca="1">IF(N21="-", "-", 1 + MAX(Вода!$A$2:$A$70) + SUM(INDIRECT(ADDRESS(2,COLUMN(Q21)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(Q21)))))</f>
         <v>-</v>
@@ -50768,7 +50777,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="24">
         <f ca="1">IF(N22="-", "-", 1 + MAX(Вода!$A$2:$A$70) + SUM(INDIRECT(ADDRESS(2,COLUMN(Q22)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(Q22)))))</f>
         <v>8</v>
@@ -50845,7 +50854,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="23" t="str">
         <f ca="1">IF(N23="-", "-", 1 + MAX(Вода!$A$2:$A$70) + SUM(INDIRECT(ADDRESS(2,COLUMN(Q23)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(Q23)))))</f>
         <v>-</v>
@@ -50919,7 +50928,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="24">
         <f ca="1">IF(N24="-", "-", 1 + MAX(Вода!$A$2:$A$70) + SUM(INDIRECT(ADDRESS(2,COLUMN(Q24)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(Q24)))))</f>
         <v>9</v>
@@ -50996,7 +51005,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="23" t="str">
         <f ca="1">IF(N25="-", "-", 1 + MAX(Вода!$A$2:$A$70) + SUM(INDIRECT(ADDRESS(2,COLUMN(Q25)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(Q25)))))</f>
         <v>-</v>
@@ -51070,7 +51079,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="26">
         <f ca="1">IF(N26="-", "-", 1 + MAX(Вода!$A$2:$A$70) + SUM(INDIRECT(ADDRESS(2,COLUMN(Q26)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(Q26)))))</f>
         <v>10</v>
@@ -51147,7 +51156,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="25">
         <f ca="1">IF(N27="-", "-", 1 + MAX(Вода!$A$2:$A$70) + SUM(INDIRECT(ADDRESS(2,COLUMN(Q27)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(Q27)))))</f>
         <v>10</v>
@@ -51224,7 +51233,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="25">
         <f ca="1">IF(N28="-", "-", 1 + MAX(Вода!$A$2:$A$70) + SUM(INDIRECT(ADDRESS(2,COLUMN(Q28)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(Q28)))))</f>
         <v>10</v>
@@ -51301,7 +51310,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="23" t="str">
         <f ca="1">IF(N29="-", "-", 1 + MAX(Вода!$A$2:$A$70) + SUM(INDIRECT(ADDRESS(2,COLUMN(Q29)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(Q29)))))</f>
         <v>-</v>
@@ -51375,7 +51384,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="24">
         <f ca="1">IF(N30="-", "-", 1 + MAX(Вода!$A$2:$A$70) + SUM(INDIRECT(ADDRESS(2,COLUMN(Q30)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(Q30)))))</f>
         <v>11</v>
@@ -51452,7 +51461,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="25">
         <f ca="1">IF(N31="-", "-", 1 + MAX(Вода!$A$2:$A$70) + SUM(INDIRECT(ADDRESS(2,COLUMN(Q31)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(Q31)))))</f>
         <v>11</v>
@@ -51529,7 +51538,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="23" t="str">
         <f ca="1">IF(N32="-", "-", 1 + MAX(Вода!$A$2:$A$70) + SUM(INDIRECT(ADDRESS(2,COLUMN(Q32)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(Q32)))))</f>
         <v>-</v>
@@ -51603,7 +51612,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="24">
         <f ca="1">IF(N33="-", "-", 1 + MAX(Вода!$A$2:$A$70) + SUM(INDIRECT(ADDRESS(2,COLUMN(Q33)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(Q33)))))</f>
         <v>12</v>
@@ -51680,7 +51689,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="25">
         <f ca="1">IF(N34="-", "-", 1 + MAX(Вода!$A$2:$A$70) + SUM(INDIRECT(ADDRESS(2,COLUMN(Q34)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(Q34)))))</f>
         <v>12</v>
@@ -51757,7 +51766,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="23" t="str">
         <f ca="1">IF(N35="-", "-", 1 + MAX(Вода!$A$2:$A$70) + SUM(INDIRECT(ADDRESS(2,COLUMN(Q35)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(Q35)))))</f>
         <v>-</v>
@@ -51831,7 +51840,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="25">
         <f ca="1">IF(N36="-", "-", 1 + MAX(Вода!$A$2:$A$70) + SUM(INDIRECT(ADDRESS(2,COLUMN(Q36)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(Q36)))))</f>
         <v>13</v>
@@ -51908,7 +51917,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="25">
         <f ca="1">IF(N37="-", "-", 1 + MAX(Вода!$A$2:$A$70) + SUM(INDIRECT(ADDRESS(2,COLUMN(Q37)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(Q37)))))</f>
         <v>13</v>
@@ -51985,7 +51994,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="23" t="str">
         <f ca="1">IF(N38="-", "-", 1 + MAX(Вода!$A$2:$A$70) + SUM(INDIRECT(ADDRESS(2,COLUMN(Q38)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(Q38)))))</f>
         <v>-</v>
@@ -52059,7 +52068,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="25">
         <f ca="1">IF(N39="-", "-", 1 + MAX(Вода!$A$2:$A$70) + SUM(INDIRECT(ADDRESS(2,COLUMN(Q39)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(Q39)))))</f>
         <v>14</v>
@@ -52136,7 +52145,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="23" t="str">
         <f ca="1">IF(N40="-", "-", 1 + MAX(Вода!$A$2:$A$70) + SUM(INDIRECT(ADDRESS(2,COLUMN(Q40)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(Q40)))))</f>
         <v>-</v>
@@ -52210,7 +52219,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="25">
         <f ca="1">IF(N41="-", "-", 1 + MAX(Вода!$A$2:$A$70) + SUM(INDIRECT(ADDRESS(2,COLUMN(Q41)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(Q41)))))</f>
         <v>15</v>
@@ -52287,7 +52296,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="23" t="str">
         <f ca="1">IF(N42="-", "-", 1 + MAX(Вода!$A$2:$A$70) + SUM(INDIRECT(ADDRESS(2,COLUMN(Q42)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(Q42)))))</f>
         <v>-</v>
@@ -52361,7 +52370,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="25">
         <f ca="1">IF(N43="-", "-", 1 + MAX(Вода!$A$2:$A$70) + SUM(INDIRECT(ADDRESS(2,COLUMN(Q43)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(Q43)))))</f>
         <v>16</v>
@@ -52438,7 +52447,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="23" t="str">
         <f ca="1">IF(N44="-", "-", 1 + MAX(Вода!$A$2:$A$70) + SUM(INDIRECT(ADDRESS(2,COLUMN(Q44)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(Q44)))))</f>
         <v>-</v>
@@ -52512,7 +52521,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="25">
         <f ca="1">IF(N45="-", "-", 1 + MAX(Вода!$A$2:$A$70) + SUM(INDIRECT(ADDRESS(2,COLUMN(Q45)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(Q45)))))</f>
         <v>17</v>
@@ -52589,7 +52598,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="23" t="str">
         <f ca="1">IF(N46="-", "-", 1 + MAX(Вода!$A$2:$A$70) + SUM(INDIRECT(ADDRESS(2,COLUMN(Q46)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(Q46)))))</f>
         <v>-</v>
@@ -52663,7 +52672,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="25">
         <f ca="1">IF(N47="-", "-", 1 + MAX(Вода!$A$2:$A$70) + SUM(INDIRECT(ADDRESS(2,COLUMN(Q47)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(Q47)))))</f>
         <v>18</v>
@@ -52740,7 +52749,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="23" t="str">
         <f ca="1">IF(N48="-", "-", 1 + MAX(Вода!$A$2:$A$70) + SUM(INDIRECT(ADDRESS(2,COLUMN(Q48)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(Q48)))))</f>
         <v>-</v>
@@ -52814,13 +52823,13 @@
         <v>850</v>
       </c>
     </row>
-    <row r="49" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="25">
         <f ca="1">IF(N49="-", "-", 1 + MAX(Вода!$A$2:$A$70) + SUM(INDIRECT(ADDRESS(2,COLUMN(Q49)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(Q49)))))</f>
         <v>19</v>
       </c>
-      <c r="B49" s="25" t="s">
-        <v>674</v>
+      <c r="B49" s="35" t="s">
+        <v>691</v>
       </c>
       <c r="C49" s="25">
         <v>850</v>
@@ -52837,8 +52846,8 @@
       <c r="G49" s="25" t="s">
         <v>676</v>
       </c>
-      <c r="H49" s="25" t="s">
-        <v>203</v>
+      <c r="H49" s="35" t="s">
+        <v>212</v>
       </c>
       <c r="I49" s="25">
         <v>850</v>
@@ -52872,7 +52881,7 @@
       </c>
       <c r="S49" t="str">
         <f>IF(H49="","",VLOOKUP(H49,'Соль SKU'!$A$1:$B$150,2,0))</f>
-        <v>2.7, Альче</v>
+        <v>2.7, Альче, без лактозы</v>
       </c>
       <c r="T49">
         <f t="shared" si="10"/>
@@ -52891,7 +52900,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="23" t="str">
         <f ca="1">IF(N50="-", "-", 1 + MAX(Вода!$A$2:$A$70) + SUM(INDIRECT(ADDRESS(2,COLUMN(Q50)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(Q50)))))</f>
         <v>-</v>
@@ -52965,7 +52974,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="24">
         <f ca="1">IF(N51="-", "-", 1 + MAX(Вода!$A$2:$A$70) + SUM(INDIRECT(ADDRESS(2,COLUMN(Q51)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(Q51)))))</f>
         <v>20</v>
@@ -53042,7 +53051,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="23" t="str">
         <f ca="1">IF(N52="-", "-", 1 + MAX(Вода!$A$2:$A$70) + SUM(INDIRECT(ADDRESS(2,COLUMN(Q52)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(Q52)))))</f>
         <v>-</v>
@@ -53116,7 +53125,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="53" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="24">
         <f ca="1">IF(N53="-", "-", 1 + MAX(Вода!$A$2:$A$70) + SUM(INDIRECT(ADDRESS(2,COLUMN(Q53)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(Q53)))))</f>
         <v>21</v>
@@ -53193,7 +53202,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="23" t="str">
         <f ca="1">IF(N54="-", "-", 1 + MAX(Вода!$A$2:$A$70) + SUM(INDIRECT(ADDRESS(2,COLUMN(Q54)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(Q54)))))</f>
         <v>-</v>
@@ -53267,7 +53276,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="55" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="24">
         <f ca="1">IF(N55="-", "-", 1 + MAX(Вода!$A$2:$A$70) + SUM(INDIRECT(ADDRESS(2,COLUMN(Q55)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(Q55)))))</f>
         <v>22</v>
@@ -53344,7 +53353,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="24">
         <f ca="1">IF(N56="-", "-", 1 + MAX(Вода!$A$2:$A$70) + SUM(INDIRECT(ADDRESS(2,COLUMN(Q56)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(Q56)))))</f>
         <v>22</v>
@@ -53421,7 +53430,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="23" t="str">
         <f ca="1">IF(N57="-", "-", 1 + MAX(Вода!$A$2:$A$70) + SUM(INDIRECT(ADDRESS(2,COLUMN(Q57)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(Q57)))))</f>
         <v>-</v>
@@ -53496,7 +53505,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="58" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="24">
         <f ca="1">IF(N58="-", "-", 1 + MAX(Вода!$A$2:$A$70) + SUM(INDIRECT(ADDRESS(2,COLUMN(Q58)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(Q58)))))</f>
         <v>23</v>
@@ -53573,7 +53582,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="23" t="str">
         <f ca="1">IF(N59="-", "-", 1 + MAX(Вода!$A$2:$A$70) + SUM(INDIRECT(ADDRESS(2,COLUMN(Q59)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(Q59)))))</f>
         <v>-</v>
@@ -53647,7 +53656,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="60" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J60" s="9" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
@@ -53693,7 +53702,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J61" s="9" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
@@ -53739,7 +53748,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J62" s="9" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
@@ -53785,7 +53794,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J63" s="9" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
@@ -53831,7 +53840,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J64" s="9" t="str">
         <f t="shared" ref="J64:J95" ca="1" si="20">IF(L64="", IF(N64="","",W64+(INDIRECT("R" &amp; ROW() - 1) - R64)),IF(N64="", "", INDIRECT("R" &amp; ROW() - 1) - R64))</f>
         <v/>
@@ -53845,7 +53854,7 @@
         <v>0</v>
       </c>
       <c r="P64">
-        <f t="shared" ref="P64:P95" ca="1" si="23">IF(N64 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(O64)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(O64)))), 0)</f>
+        <f t="shared" ref="P64:P71" ca="1" si="23">IF(N64 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(O64)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(O64)))), 0)</f>
         <v>0</v>
       </c>
       <c r="Q64">
@@ -53877,7 +53886,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J65" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -53923,7 +53932,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J66" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -53969,7 +53978,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J67" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -54015,7 +54024,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J68" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -54061,7 +54070,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J69" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -54107,7 +54116,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J70" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -54153,7 +54162,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J71" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -54199,7 +54208,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J72" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -54245,7 +54254,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J73" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -54291,7 +54300,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J74" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -54337,7 +54346,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J75" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -54383,7 +54392,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J76" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -54429,7 +54438,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J77" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -54475,7 +54484,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J78" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -54521,7 +54530,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J79" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -54567,7 +54576,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J80" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -54613,7 +54622,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J81" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -54659,7 +54668,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J82" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -54705,7 +54714,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J83" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -54751,7 +54760,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J84" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -54797,7 +54806,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J85" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -54843,7 +54852,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J86" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -54889,7 +54898,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J87" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -54935,7 +54944,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J88" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -54981,7 +54990,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J89" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -55027,7 +55036,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J90" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -55073,7 +55082,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J91" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -55119,7 +55128,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J92" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -55165,7 +55174,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J93" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -55211,7 +55220,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J94" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -55257,7 +55266,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J95" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -55303,17 +55312,17 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J96" s="9" t="str">
         <f t="shared" ref="J96:J120" ca="1" si="31">IF(L96="", IF(N96="","",W96+(INDIRECT("R" &amp; ROW() - 1) - R96)),IF(N96="", "", INDIRECT("R" &amp; ROW() - 1) - R96))</f>
         <v/>
       </c>
       <c r="M96" s="10" t="str">
-        <f t="shared" ref="M96:M127" ca="1" si="32">IF(L96="", IF(W96=0, "", W96), IF(U96 = "", "", IF(U96/T96 = 0, "", U96/T96)))</f>
+        <f t="shared" ref="M96:M120" ca="1" si="32">IF(L96="", IF(W96=0, "", W96), IF(U96 = "", "", IF(U96/T96 = 0, "", U96/T96)))</f>
         <v/>
       </c>
       <c r="O96">
-        <f t="shared" ref="O96:O127" si="33">IF(N96 = "-", -V96,I96)</f>
+        <f t="shared" ref="O96:O120" si="33">IF(N96 = "-", -V96,I96)</f>
         <v>0</v>
       </c>
       <c r="P96">
@@ -55341,7 +55350,7 @@
         <v>0</v>
       </c>
       <c r="V96">
-        <f t="shared" ref="V96:V127" si="37">IF(U96 = "", "", U96/T96)</f>
+        <f t="shared" ref="V96:V120" si="37">IF(U96 = "", "", U96/T96)</f>
         <v>0</v>
       </c>
       <c r="W96" t="str">
@@ -55349,7 +55358,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J97" s="9" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -55395,7 +55404,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J98" s="9" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -55441,7 +55450,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J99" s="9" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -55487,7 +55496,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J100" s="9" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -55533,7 +55542,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J101" s="9" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -55579,7 +55588,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J102" s="9" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -55625,7 +55634,7 @@
         <v/>
       </c>
     </row>
-    <row r="103" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J103" s="9" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -55671,7 +55680,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J104" s="9" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -55717,7 +55726,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J105" s="9" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -55763,7 +55772,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J106" s="9" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -55809,7 +55818,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J107" s="9" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -55855,7 +55864,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J108" s="9" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -55901,7 +55910,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J109" s="9" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -55947,7 +55956,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J110" s="9" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -55993,7 +56002,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J111" s="9" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -56039,7 +56048,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J112" s="9" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -56085,7 +56094,7 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J113" s="9" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -56131,7 +56140,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J114" s="9" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -56177,7 +56186,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J115" s="9" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -56223,7 +56232,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J116" s="9" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -56269,7 +56278,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J117" s="9" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -56315,7 +56324,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J118" s="9" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -56361,7 +56370,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J119" s="9" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -56407,7 +56416,7 @@
         <v/>
       </c>
     </row>
-    <row r="120" spans="10:23" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="10:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J120" s="9" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -56454,42 +56463,71 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B120">
-    <cfRule type="expression" dxfId="3" priority="2">
+  <conditionalFormatting sqref="B2:B48 B50:B120">
+    <cfRule type="expression" dxfId="4" priority="3">
       <formula>$B2&lt;&gt;$S2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="between">
       <formula>1</formula>
       <formula>1000000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="between">
       <formula>-100000</formula>
       <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="expression" dxfId="0" priority="35">
+    <cfRule type="expression" dxfId="1" priority="36">
       <formula>SUMIF(J2:J120,"&gt;0")-SUMIF(J2:J120,"&lt;0") &gt; 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B49">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$B49&lt;&gt;$S49</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{68F5B955-DB7F-4EEB-AC73-651595DA8DC0}">
+          <x14:formula1>
+            <xm:f>'[2021-01-28 План по варкам.xlsx]Соль SKU'!#REF!</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>0</xm:f>
+          </x14:formula2>
+          <xm:sqref>H49</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" showInputMessage="1" xr:uid="{A8DF098E-CE1A-49AA-B1D4-E28B3C67407B}">
+          <x14:formula1>
+            <xm:f>'[2021-01-28 План по варкам.xlsx]Типы варок'!#REF!</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>0</xm:f>
+          </x14:formula2>
+          <xm:sqref>B49</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AMK1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1025" width="9.08984375" style="22" customWidth="1"/>
+    <col min="1" max="1025" width="9.109375" style="22" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -56502,104 +56540,104 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AMK18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1025" width="8.54296875" style="22" customWidth="1"/>
+    <col min="1" max="1025" width="8.5546875" style="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="23" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="23" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="23" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="23" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="23" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="23" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="23" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="23" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="23" t="s">
         <v>690</v>
       </c>
@@ -56611,20 +56649,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A2:AMK5"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.453125" style="22" customWidth="1"/>
-    <col min="2" max="1025" width="9.08984375" style="22" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" style="22" customWidth="1"/>
+    <col min="2" max="1025" width="9.109375" style="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
         <v>223</v>
       </c>
@@ -56632,7 +56670,7 @@
         <v>-6.8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>224</v>
       </c>
@@ -56640,7 +56678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
         <v>225</v>
       </c>
@@ -56648,7 +56686,7 @@
         <v>-3.8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
         <v>226</v>
       </c>
@@ -56667,20 +56705,20 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AMK26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.6328125" style="22" customWidth="1"/>
-    <col min="2" max="1025" width="8.54296875" style="22" customWidth="1"/>
+    <col min="1" max="1" width="43.6640625" style="22" customWidth="1"/>
+    <col min="2" max="1025" width="8.5546875" style="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>669</v>
       </c>
@@ -56688,7 +56726,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
         <v>242</v>
       </c>
@@ -56696,7 +56734,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>232</v>
       </c>
@@ -56704,7 +56742,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
         <v>231</v>
       </c>
@@ -56712,7 +56750,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
         <v>233</v>
       </c>
@@ -56720,7 +56758,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
         <v>234</v>
       </c>
@@ -56728,7 +56766,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
         <v>235</v>
       </c>
@@ -56736,7 +56774,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
         <v>229</v>
       </c>
@@ -56744,7 +56782,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
         <v>247</v>
       </c>
@@ -56752,7 +56790,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="23" t="s">
         <v>245</v>
       </c>
@@ -56760,7 +56798,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="23" t="s">
         <v>243</v>
       </c>
@@ -56768,7 +56806,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="23" t="s">
         <v>251</v>
       </c>
@@ -56776,7 +56814,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="23" t="s">
         <v>252</v>
       </c>
@@ -56784,7 +56822,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="23" t="s">
         <v>237</v>
       </c>
@@ -56792,7 +56830,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="23" t="s">
         <v>238</v>
       </c>
@@ -56800,7 +56838,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="23" t="s">
         <v>540</v>
       </c>
@@ -56808,7 +56846,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="23" t="s">
         <v>240</v>
       </c>
@@ -56816,7 +56854,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="23" t="s">
         <v>239</v>
       </c>
@@ -56824,7 +56862,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="23" t="s">
         <v>230</v>
       </c>
@@ -56832,7 +56870,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="23" t="s">
         <v>236</v>
       </c>
@@ -56840,7 +56878,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="23" t="s">
         <v>246</v>
       </c>
@@ -56848,7 +56886,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="23" t="s">
         <v>250</v>
       </c>
@@ -56856,7 +56894,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="23" t="s">
         <v>248</v>
       </c>
@@ -56864,7 +56902,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="23" t="s">
         <v>244</v>
       </c>
@@ -56872,7 +56910,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="23" t="s">
         <v>249</v>
       </c>
@@ -56880,7 +56918,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="23" t="s">
         <v>241</v>
       </c>
@@ -56895,20 +56933,20 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AMK37"/>
   <sheetViews>
     <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.7265625" style="22" customWidth="1"/>
-    <col min="2" max="1025" width="8.54296875" style="22" customWidth="1"/>
+    <col min="1" max="1" width="43.77734375" style="22" customWidth="1"/>
+    <col min="2" max="1025" width="8.5546875" style="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>669</v>
       </c>
@@ -56916,7 +56954,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
         <v>226</v>
       </c>
@@ -56924,7 +56962,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>225</v>
       </c>
@@ -56932,7 +56970,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
         <v>222</v>
       </c>
@@ -56940,7 +56978,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
         <v>223</v>
       </c>
@@ -56948,7 +56986,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
         <v>224</v>
       </c>
@@ -56956,7 +56994,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
         <v>217</v>
       </c>
@@ -56964,7 +57002,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
         <v>213</v>
       </c>
@@ -56972,7 +57010,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
         <v>220</v>
       </c>
@@ -56980,7 +57018,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="23" t="s">
         <v>215</v>
       </c>
@@ -56988,7 +57026,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="23" t="s">
         <v>219</v>
       </c>
@@ -56996,7 +57034,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="23" t="s">
         <v>228</v>
       </c>
@@ -57004,7 +57042,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="23" t="s">
         <v>212</v>
       </c>
@@ -57012,7 +57050,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="23" t="s">
         <v>214</v>
       </c>
@@ -57020,7 +57058,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="23" t="s">
         <v>542</v>
       </c>
@@ -57028,7 +57066,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="23" t="s">
         <v>216</v>
       </c>
@@ -57036,7 +57074,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="23" t="s">
         <v>205</v>
       </c>
@@ -57044,7 +57082,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="23" t="s">
         <v>210</v>
       </c>
@@ -57052,7 +57090,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="23" t="s">
         <v>218</v>
       </c>
@@ -57060,7 +57098,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="23" t="s">
         <v>204</v>
       </c>
@@ -57068,7 +57106,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="23" t="s">
         <v>211</v>
       </c>
@@ -57076,7 +57114,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="23" t="s">
         <v>206</v>
       </c>
@@ -57084,7 +57122,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="23" t="s">
         <v>207</v>
       </c>
@@ -57092,7 +57130,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="23" t="s">
         <v>208</v>
       </c>
@@ -57100,7 +57138,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="23" t="s">
         <v>209</v>
       </c>
@@ -57108,7 +57146,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="23" t="s">
         <v>227</v>
       </c>
@@ -57116,7 +57154,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="23" t="s">
         <v>221</v>
       </c>
@@ -57124,7 +57162,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="23" t="s">
         <v>203</v>
       </c>
@@ -57132,7 +57170,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="23" t="s">
         <v>196</v>
       </c>
@@ -57140,7 +57178,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="23" t="s">
         <v>195</v>
       </c>
@@ -57148,7 +57186,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="23" t="s">
         <v>200</v>
       </c>
@@ -57156,7 +57194,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="23" t="s">
         <v>198</v>
       </c>
@@ -57164,7 +57202,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="23" t="s">
         <v>197</v>
       </c>
@@ -57172,7 +57210,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="23" t="s">
         <v>202</v>
       </c>
@@ -57180,7 +57218,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="23" t="s">
         <v>558</v>
       </c>
@@ -57188,7 +57226,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="23" t="s">
         <v>201</v>
       </c>
@@ -57196,7 +57234,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="23" t="s">
         <v>199</v>
       </c>
